--- a/biology/Médecine/Stressomètre/Stressomètre.xlsx
+++ b/biology/Médecine/Stressomètre/Stressomètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stressom%C3%A8tre</t>
+          <t>Stressomètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le stressomètre est un instrument électronique de mesure du tremblement nerveux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stressom%C3%A8tre</t>
+          <t>Stressomètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès les années 1930, le tremblement nerveux du corps humain (en particulier au niveau des mains) a été considéré comme un indicateur de la santé nerveuse par le Pr Hans Selye, physiologiste canadien qui utilisa le premier le mot stress en santé humaine.
 Jusqu'à récemment toutefois, il n'existait pas d'instrument de mesure accessible au public et aux professionnels de la santé permettant la mesure de ce tremblement.
 La nicotine (pour les fumeurs), la caféine (pour les consommateurs de café), l'adrénaline (le stress quotidien...) contribuent à une augmentation du niveau de tremblement des extrémités.
-Bruno Comby, chercheur polytechnicien, né en 1960, spécialiste de santé préventive, a développé au sein de l'institut Bruno Comby[1] un appareil basé sur un accéléromètre et un traitement électronique adéquat du signal permettant de mesurer ce tremblement au niveau de la main.
+Bruno Comby, chercheur polytechnicien, né en 1960, spécialiste de santé préventive, a développé au sein de l'institut Bruno Comby un appareil basé sur un accéléromètre et un traitement électronique adéquat du signal permettant de mesurer ce tremblement au niveau de la main.
 Le stressomètre Comby est ainsi le premier système permettant de quantifier le tremblement humain.
 La mesure se fait en 20 secondes en appuyant sur un bouton. Le résultat s'affiche ensuite et permet de se référer à l'échelle standard de tremblement nerveux au repos (TNR).
 Certains médicaments (bêta-bloquants, tranquillisants), peuvent diminuer ou au contraire (neuroleptiques) peuvent augmenter le tremblement.
